--- a/src/test/resources/TestData/ExcelData.xlsx
+++ b/src/test/resources/TestData/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationProject\WebAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83D40A6-1526-4152-A91C-1851972118D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90270E2C-F883-4522-93A4-DEA9CA0D5752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBF00CFE-A2B6-468D-9855-6F5A8AAC9271}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>confrimpassword</t>
   </si>
   <si>
-    <t>MyUserName02</t>
-  </si>
-  <si>
-    <t>MyUserName02@gmail.com</t>
+    <t>MyUserName002</t>
+  </si>
+  <si>
+    <t>MyUserName002@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -399,12 +399,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
